--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Elnet Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Yearly Results of Elnet Technologies(in Rs. Cr.)</t>
   </si>
@@ -161,6 +161,90 @@
   </si>
   <si>
     <t>Mar '23</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>19.02</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>6.82</t>
+  </si>
+  <si>
+    <t>7.38</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>13.31</t>
+  </si>
+  <si>
+    <t>15.95</t>
+  </si>
+  <si>
+    <t>21.04</t>
+  </si>
+  <si>
+    <t>16.44</t>
+  </si>
+  <si>
+    <t>16.07</t>
+  </si>
+  <si>
+    <t>16.88</t>
+  </si>
+  <si>
+    <t>21.16</t>
+  </si>
+  <si>
+    <t>26.15</t>
+  </si>
+  <si>
+    <t>21.48</t>
+  </si>
+  <si>
+    <t>22.08</t>
+  </si>
+  <si>
+    <t>22.67</t>
+  </si>
+  <si>
+    <t>22.21</t>
+  </si>
+  <si>
+    <t>24.04</t>
+  </si>
+  <si>
+    <t>21.36</t>
+  </si>
+  <si>
+    <t>24.61</t>
   </si>
 </sst>
 </file>
@@ -590,8 +674,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -652,14 +736,14 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>1.19</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>16.9912</v>
+        <v>16.99</v>
       </c>
       <c r="D3">
-        <v>1.066521739130435</v>
+        <v>1.07</v>
       </c>
       <c r="E3">
         <v>0.28</v>
@@ -668,28 +752,28 @@
         <v>0.48</v>
       </c>
       <c r="G3">
-        <v>7.253200000000001</v>
+        <v>7.25</v>
       </c>
       <c r="H3">
         <v>0.05</v>
       </c>
       <c r="I3">
-        <v>9.3728</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J3">
         <v>0.45</v>
       </c>
       <c r="K3">
-        <v>8.632</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L3">
-        <v>8.6288</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="M3">
-        <v>2.705</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>6.031199999999999</v>
+        <v>6.03</v>
       </c>
       <c r="O3">
         <v>0.04</v>
@@ -698,30 +782,30 @@
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>41.7196</v>
+        <v>41.72</v>
       </c>
       <c r="R3">
-        <v>14.45833333333333</v>
+        <v>14.46</v>
       </c>
       <c r="S3">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T3">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>4.64</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>16.9912</v>
+        <v>16.99</v>
       </c>
       <c r="D4">
-        <v>1.066521739130435</v>
+        <v>1.07</v>
       </c>
       <c r="E4">
         <v>0.45</v>
@@ -730,28 +814,28 @@
         <v>4.36</v>
       </c>
       <c r="G4">
-        <v>7.253200000000001</v>
+        <v>7.25</v>
       </c>
       <c r="H4">
         <v>0.08</v>
       </c>
       <c r="I4">
-        <v>9.3728</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
-        <v>8.632</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L4">
-        <v>8.6288</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="M4">
-        <v>2.705</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>6.031199999999999</v>
+        <v>6.03</v>
       </c>
       <c r="O4">
         <v>-2.1</v>
@@ -760,30 +844,30 @@
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>41.7196</v>
+        <v>41.72</v>
       </c>
       <c r="R4">
-        <v>14.45833333333333</v>
+        <v>14.46</v>
       </c>
       <c r="S4">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T4">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>4.87</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>16.9912</v>
+        <v>16.99</v>
       </c>
       <c r="D5">
-        <v>1.066521739130435</v>
+        <v>1.07</v>
       </c>
       <c r="E5">
         <v>0.46</v>
@@ -792,28 +876,28 @@
         <v>2.35</v>
       </c>
       <c r="G5">
-        <v>7.253200000000001</v>
+        <v>7.25</v>
       </c>
       <c r="H5">
         <v>0.04</v>
       </c>
       <c r="I5">
-        <v>9.3728</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J5">
         <v>1.74</v>
       </c>
       <c r="K5">
-        <v>8.632</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L5">
-        <v>8.6288</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="M5">
-        <v>2.705</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>6.031199999999999</v>
+        <v>6.03</v>
       </c>
       <c r="O5">
         <v>0.36</v>
@@ -822,30 +906,30 @@
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>41.7196</v>
+        <v>41.72</v>
       </c>
       <c r="R5">
-        <v>14.45833333333333</v>
+        <v>14.46</v>
       </c>
       <c r="S5">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T5">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>5.7</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>16.9912</v>
+        <v>16.99</v>
       </c>
       <c r="D6">
-        <v>1.066521739130435</v>
+        <v>1.07</v>
       </c>
       <c r="E6">
         <v>0.49</v>
@@ -854,28 +938,28 @@
         <v>2.32</v>
       </c>
       <c r="G6">
-        <v>7.253200000000001</v>
+        <v>7.25</v>
       </c>
       <c r="H6">
         <v>0.05</v>
       </c>
       <c r="I6">
-        <v>9.3728</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J6">
         <v>1.88</v>
       </c>
       <c r="K6">
-        <v>8.632</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L6">
-        <v>8.6288</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="M6">
-        <v>2.705</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>6.031199999999999</v>
+        <v>6.03</v>
       </c>
       <c r="O6">
         <v>1.05</v>
@@ -884,24 +968,24 @@
         <v>4</v>
       </c>
       <c r="Q6">
-        <v>41.7196</v>
+        <v>41.72</v>
       </c>
       <c r="R6">
-        <v>14.45833333333333</v>
+        <v>14.46</v>
       </c>
       <c r="S6">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T6">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>19.02</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
       <c r="C7">
         <v>19.02</v>
@@ -962,14 +1046,14 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>5.3</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
       <c r="C8">
         <v>5.3</v>
       </c>
       <c r="D8">
-        <v>1.066521739130435</v>
+        <v>1.07</v>
       </c>
       <c r="E8">
         <v>0.54</v>
@@ -996,7 +1080,7 @@
         <v>0.37</v>
       </c>
       <c r="M8">
-        <v>2.705</v>
+        <v>2.7</v>
       </c>
       <c r="N8">
         <v>0.37</v>
@@ -1011,27 +1095,27 @@
         <v>-0.06</v>
       </c>
       <c r="R8">
-        <v>14.45833333333333</v>
+        <v>14.46</v>
       </c>
       <c r="S8">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T8">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>6.82</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>6.82</v>
       </c>
       <c r="D9">
-        <v>1.066521739130435</v>
+        <v>1.07</v>
       </c>
       <c r="E9">
         <v>0.55</v>
@@ -1076,18 +1160,18 @@
         <v>10</v>
       </c>
       <c r="S9">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T9">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>7.38</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>7.38</v>
@@ -1138,18 +1222,18 @@
         <v>10</v>
       </c>
       <c r="S10">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T10">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>8.210000000000001</v>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
         <v>8.210000000000001</v>
@@ -1210,8 +1294,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>21.56</v>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>21.56</v>
@@ -1235,7 +1319,7 @@
         <v>8.65</v>
       </c>
       <c r="J12">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="K12">
         <v>8.65</v>
@@ -1272,8 +1356,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>8.94</v>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>8.94</v>
@@ -1334,8 +1418,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>12.02</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>12.02</v>
@@ -1396,8 +1480,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>13.31</v>
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>13.31</v>
@@ -1458,8 +1542,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>15.95</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16">
         <v>15.95</v>
@@ -1520,8 +1604,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>21.04</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>21.04</v>
@@ -1572,18 +1656,18 @@
         <v>15</v>
       </c>
       <c r="S17">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T17">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>16.44</v>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>16.44</v>
@@ -1644,8 +1728,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>16.07</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
       <c r="C19">
         <v>16.07</v>
@@ -1706,8 +1790,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>16.88</v>
+      <c r="B20" t="s">
+        <v>67</v>
       </c>
       <c r="C20">
         <v>16.88</v>
@@ -1768,8 +1852,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>21.16</v>
+      <c r="B21" t="s">
+        <v>68</v>
       </c>
       <c r="C21">
         <v>21.16</v>
@@ -1793,7 +1877,7 @@
         <v>8.02</v>
       </c>
       <c r="J21">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="K21">
         <v>8.02</v>
@@ -1830,8 +1914,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>26.15</v>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
       <c r="C22">
         <v>26.15</v>
@@ -1882,18 +1966,18 @@
         <v>17</v>
       </c>
       <c r="S22">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T22">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>21.48</v>
+      <c r="B23" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>21.48</v>
@@ -1917,7 +2001,7 @@
         <v>8.48</v>
       </c>
       <c r="J23">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="K23">
         <v>8.470000000000001</v>
@@ -1954,8 +2038,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>22.08</v>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24">
         <v>22.08</v>
@@ -1979,7 +2063,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J24">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="K24">
         <v>9.800000000000001</v>
@@ -2016,8 +2100,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>22.67</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>22.67</v>
@@ -2041,7 +2125,7 @@
         <v>12.12</v>
       </c>
       <c r="J25">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
         <v>12.12</v>
@@ -2078,8 +2162,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>22.21</v>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>22.21</v>
@@ -2130,18 +2214,18 @@
         <v>15</v>
       </c>
       <c r="S26">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T26">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>24.04</v>
+      <c r="B27" t="s">
+        <v>74</v>
       </c>
       <c r="C27">
         <v>24.04</v>
@@ -2192,18 +2276,18 @@
         <v>12</v>
       </c>
       <c r="S27">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T27">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>21.36</v>
+      <c r="B28" t="s">
+        <v>75</v>
       </c>
       <c r="C28">
         <v>21.36</v>
@@ -2254,18 +2338,18 @@
         <v>14</v>
       </c>
       <c r="S28">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T28">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>22.08</v>
+      <c r="B29" t="s">
+        <v>71</v>
       </c>
       <c r="C29">
         <v>22.08</v>
@@ -2316,18 +2400,18 @@
         <v>20</v>
       </c>
       <c r="S29">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T29">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>24.61</v>
+      <c r="B30" t="s">
+        <v>76</v>
       </c>
       <c r="C30">
         <v>24.61</v>
@@ -2378,10 +2462,10 @@
         <v>20</v>
       </c>
       <c r="S30">
-        <v>0.206</v>
+        <v>0.21</v>
       </c>
       <c r="T30">
-        <v>51.69333333333334</v>
+        <v>51.69</v>
       </c>
     </row>
   </sheetData>
